--- a/CNN Comparison/CNN Comparison.xlsx
+++ b/CNN Comparison/CNN Comparison.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\AAA_Data Science\Semestre 2\T2 - Deep Learning\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\AAA_Data Science\Semestre 2\T2 - Deep Learning\deep_learning\Group_Project\CNN Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB27EBA-7E1D-4BB0-B100-9BE803084017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB063955-76C1-4A4D-8848-845F80FCDDE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9003F31-B10A-4151-B5ED-BCE2785F379A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>Model Name</t>
   </si>
@@ -212,6 +212,24 @@
   </si>
   <si>
     <t>CNN_Augmentaion_v1</t>
+  </si>
+  <si>
+    <t>ResNet50V2</t>
+  </si>
+  <si>
+    <t>CNN_Pretrained_V12</t>
+  </si>
+  <si>
+    <t>CNN_Pretrained_V13</t>
+  </si>
+  <si>
+    <t>VGG16</t>
+  </si>
+  <si>
+    <t>CNN_Pretrained_V14</t>
+  </si>
+  <si>
+    <t>InceptionResNetV2</t>
   </si>
 </sst>
 </file>
@@ -241,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,8 +323,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034F4719-EC94-474F-A072-75B8F2B5BF2E}">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,7 +715,9 @@
       <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
@@ -786,7 +815,9 @@
       <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
@@ -869,22 +900,22 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="6">
         <v>0.79</v>
       </c>
     </row>
@@ -901,10 +932,70 @@
       <c r="E15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="4">
         <v>0.78</v>
       </c>
     </row>
